--- a/practice_xcs.xlsx
+++ b/practice_xcs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr backupFile="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="5"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="xc1" sheetId="1" r:id="rId1"/>
@@ -963,24 +963,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="68420352"/>
-        <c:axId val="68421888"/>
+        <c:axId val="145538432"/>
+        <c:axId val="145552512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68420352"/>
+        <c:axId val="145538432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68421888"/>
+        <c:crossAx val="145552512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68421888"/>
+        <c:axId val="145552512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +987,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68420352"/>
+        <c:crossAx val="145538432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1002,7 +1001,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000207" r="0.70000000000000207" t="0.75000000000000311" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000218" r="0.70000000000000218" t="0.75000000000000322" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1244,24 +1243,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="101263616"/>
-        <c:axId val="101281792"/>
+        <c:axId val="145630336"/>
+        <c:axId val="145631872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101263616"/>
+        <c:axId val="145630336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101281792"/>
+        <c:crossAx val="145631872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101281792"/>
+        <c:axId val="145631872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1267,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101263616"/>
+        <c:crossAx val="145630336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1283,7 +1281,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000207" r="0.70000000000000207" t="0.75000000000000311" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000218" r="0.70000000000000218" t="0.75000000000000322" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1525,24 +1523,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="101416960"/>
-        <c:axId val="101418496"/>
+        <c:axId val="146479744"/>
+        <c:axId val="146497920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101416960"/>
+        <c:axId val="146479744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101418496"/>
+        <c:crossAx val="146497920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101418496"/>
+        <c:axId val="146497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +1547,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101416960"/>
+        <c:crossAx val="146479744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1564,7 +1561,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000207" r="0.70000000000000207" t="0.75000000000000311" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000218" r="0.70000000000000218" t="0.75000000000000322" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1806,24 +1803,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="101377152"/>
-        <c:axId val="101378688"/>
+        <c:axId val="146538496"/>
+        <c:axId val="146540032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101377152"/>
+        <c:axId val="146538496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101378688"/>
+        <c:crossAx val="146540032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101378688"/>
+        <c:axId val="146540032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1827,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101377152"/>
+        <c:crossAx val="146538496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1845,7 +1841,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000207" r="0.70000000000000207" t="0.75000000000000311" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000218" r="0.70000000000000218" t="0.75000000000000322" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2087,24 +2083,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="101505664"/>
-        <c:axId val="101515648"/>
+        <c:axId val="146585856"/>
+        <c:axId val="146677760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101505664"/>
+        <c:axId val="146585856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101515648"/>
+        <c:crossAx val="146677760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101515648"/>
+        <c:axId val="146677760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,7 +2107,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101505664"/>
+        <c:crossAx val="146585856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2126,7 +2121,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000207" r="0.70000000000000207" t="0.75000000000000311" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000218" r="0.70000000000000218" t="0.75000000000000322" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2386,24 +2381,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="101622144"/>
-        <c:axId val="101623680"/>
+        <c:axId val="146754560"/>
+        <c:axId val="146789120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101622144"/>
+        <c:axId val="146754560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101623680"/>
+        <c:crossAx val="146789120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101623680"/>
+        <c:axId val="146789120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,7 +2405,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101622144"/>
+        <c:crossAx val="146754560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2425,7 +2419,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000411" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000411" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000422" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000422" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2928,7 +2922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5734,8 +5728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -6244,7 +6238,7 @@
     <row r="16" spans="1:19">
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="3:18">
+    <row r="17" spans="3:12">
       <c r="C17" s="12"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -6256,13 +6250,13 @@
       <c r="K17" s="15"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="3:18">
+    <row r="18" spans="3:12">
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="3:18">
+    <row r="19" spans="3:12">
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="3:18">
+    <row r="20" spans="3:12">
       <c r="C20" s="12"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -6274,7 +6268,7 @@
       <c r="K20" s="15"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="23" spans="3:18">
+    <row r="23" spans="3:12">
       <c r="C23" s="12"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -6284,11 +6278,8 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="15"/>
-      <c r="R23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18">
+    </row>
+    <row r="26" spans="3:12">
       <c r="C26" s="12"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>

--- a/practice_xcs.xlsx
+++ b/practice_xcs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr backupFile="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="xc1" sheetId="1" r:id="rId1"/>
@@ -891,10 +891,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>25.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,10 +939,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-25.5</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-25.5</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,23 +963,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="145538432"/>
-        <c:axId val="145552512"/>
+        <c:axId val="139961856"/>
+        <c:axId val="139963392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145538432"/>
+        <c:axId val="139961856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145552512"/>
+        <c:crossAx val="139963392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145552512"/>
+        <c:axId val="139963392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,7 +987,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145538432"/>
+        <c:crossAx val="139961856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1001,7 +1001,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000218" r="0.70000000000000218" t="0.75000000000000322" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1171,10 +1171,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>25.5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,10 +1219,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-25.5</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-25.5</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,23 +1243,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="145630336"/>
-        <c:axId val="145631872"/>
+        <c:axId val="146659200"/>
+        <c:axId val="146660736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145630336"/>
+        <c:axId val="146659200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145631872"/>
+        <c:crossAx val="146660736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145631872"/>
+        <c:axId val="146660736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1267,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145630336"/>
+        <c:crossAx val="146659200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1281,7 +1281,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000218" r="0.70000000000000218" t="0.75000000000000322" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1451,10 +1451,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>25.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1499,10 +1499,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-25.5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-25.5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,23 +1523,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146479744"/>
-        <c:axId val="146497920"/>
+        <c:axId val="141068160"/>
+        <c:axId val="141069696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146479744"/>
+        <c:axId val="141068160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146497920"/>
+        <c:crossAx val="141069696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146497920"/>
+        <c:axId val="141069696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1547,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146479744"/>
+        <c:crossAx val="141068160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1561,7 +1561,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000218" r="0.70000000000000218" t="0.75000000000000322" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1583,7 +1583,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1803,23 +1802,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146538496"/>
-        <c:axId val="146540032"/>
+        <c:axId val="146798080"/>
+        <c:axId val="146799616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146538496"/>
+        <c:axId val="146798080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146540032"/>
+        <c:crossAx val="146799616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146540032"/>
+        <c:axId val="146799616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,21 +1826,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146538496"/>
+        <c:crossAx val="146798080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000218" r="0.70000000000000218" t="0.75000000000000322" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1863,7 +1861,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2083,23 +2080,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146585856"/>
-        <c:axId val="146677760"/>
+        <c:axId val="146802176"/>
+        <c:axId val="146803712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146585856"/>
+        <c:axId val="146802176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146677760"/>
+        <c:crossAx val="146803712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146677760"/>
+        <c:axId val="146803712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,21 +2104,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146585856"/>
+        <c:crossAx val="146802176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000218" r="0.70000000000000218" t="0.75000000000000322" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000229" r="0.70000000000000229" t="0.75000000000000333" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2143,7 +2139,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2381,23 +2376,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146754560"/>
-        <c:axId val="146789120"/>
+        <c:axId val="147744256"/>
+        <c:axId val="147745792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146754560"/>
+        <c:axId val="147744256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146789120"/>
+        <c:crossAx val="147745792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146789120"/>
+        <c:axId val="147745792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,21 +2400,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146754560"/>
+        <c:crossAx val="147744256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000422" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000422" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000433" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2922,8 +2916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -3128,7 +3122,7 @@
       </c>
       <c r="S5" s="28">
         <f>B13</f>
-        <v>-25.5</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3188,7 +3182,7 @@
       </c>
       <c r="S6" s="28">
         <f>B13</f>
-        <v>-25.5</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3229,7 +3223,7 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28">
         <f>B14</f>
-        <v>25.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3270,7 +3264,7 @@
       <c r="R8" s="28"/>
       <c r="S8" s="28">
         <f>B14</f>
-        <v>25.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -3367,7 +3361,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="17">
-        <v>-25.5</v>
+        <v>-30</v>
       </c>
       <c r="L13" s="9"/>
     </row>
@@ -3376,7 +3370,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="20">
-        <v>25.5</v>
+        <v>30</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="8"/>
@@ -3485,7 +3479,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A15" sqref="A15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -3690,7 +3684,7 @@
       </c>
       <c r="S5" s="28">
         <f>B13</f>
-        <v>-25.5</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3750,7 +3744,7 @@
       </c>
       <c r="S6" s="28">
         <f>B13</f>
-        <v>-25.5</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3791,7 +3785,7 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28">
         <f>B14</f>
-        <v>25.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3832,7 +3826,7 @@
       <c r="R8" s="28"/>
       <c r="S8" s="28">
         <f>B14</f>
-        <v>25.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -3929,7 +3923,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="17">
-        <v>-25.5</v>
+        <v>-25</v>
       </c>
       <c r="L13" s="9"/>
     </row>
@@ -3938,7 +3932,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="20">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="8"/>
@@ -4045,8 +4039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -4251,7 +4245,7 @@
       </c>
       <c r="S5" s="28">
         <f>B13</f>
-        <v>-25.5</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4311,7 +4305,7 @@
       </c>
       <c r="S6" s="28">
         <f>B13</f>
-        <v>-25.5</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4352,7 +4346,7 @@
       <c r="R7" s="28"/>
       <c r="S7" s="28">
         <f>B14</f>
-        <v>25.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4393,7 +4387,7 @@
       <c r="R8" s="28"/>
       <c r="S8" s="28">
         <f>B14</f>
-        <v>25.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4490,7 +4484,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="17">
-        <v>-25.5</v>
+        <v>-20</v>
       </c>
       <c r="L13" s="9"/>
     </row>
@@ -4499,7 +4493,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="20">
-        <v>25.5</v>
+        <v>20</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="8"/>

--- a/practice_xcs.xlsx
+++ b/practice_xcs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr backupFile="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <workbookPr backupFile="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="25380" windowHeight="16440" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="HL_E" sheetId="7" r:id="rId1"/>
@@ -17,13 +17,21 @@
     <sheet name="18P" sheetId="19" r:id="rId8"/>
     <sheet name="32E" sheetId="20" r:id="rId9"/>
     <sheet name="32P" sheetId="18" r:id="rId10"/>
+    <sheet name="raise1" sheetId="23" r:id="rId11"/>
+    <sheet name="raise2" sheetId="24" r:id="rId12"/>
+    <sheet name="raise3" sheetId="25" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="80">
   <si>
     <t>FIELDS Template</t>
   </si>
@@ -252,12 +260,24 @@
   <si>
     <t>Section 14 Proposed</t>
   </si>
+  <si>
+    <t>Raise Test 1</t>
+  </si>
+  <si>
+    <t>raise</t>
+  </si>
+  <si>
+    <t>Raise Test 2</t>
+  </si>
+  <si>
+    <t>Raise Test 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -527,46 +547,46 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -575,7 +595,7 @@
       <left/>
       <right/>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -744,6 +764,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,7 +795,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -873,7 +893,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -888,11 +918,14 @@
         </c:strRef>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -915,31 +948,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-25</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20</c:v>
+                  <c:v>-20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15</c:v>
+                  <c:v>-15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,35 +984,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1003,13 +1037,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-23</c:v>
+                  <c:v>-23.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,17 +1055,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1059,10 +1094,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,11 +1112,12 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1107,10 +1143,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-45</c:v>
+                  <c:v>-45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-45</c:v>
+                  <c:v>-45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,20 +1161,30 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="140139136"/>
-        <c:axId val="140145792"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2092446952"/>
+        <c:axId val="2090931000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140139136"/>
+        <c:axId val="2092446952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1157,18 +1203,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140145792"/>
+        <c:crossAx val="2090931000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140145792"/>
+        <c:axId val="2090931000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1188,10 +1238,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140139136"/>
+        <c:crossAx val="2092446952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1199,12 +1252,15 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.700000000000001" r="0.700000000000001" t="0.750000000000002" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1212,7 +1268,17 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1226,12 +1292,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1257,7 +1325,7 @@
                   <c:v>-234.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-200</c:v>
+                  <c:v>-200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-165.5</c:v>
@@ -1266,43 +1334,43 @@
                   <c:v>-84.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-15.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>124</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171</c:v>
+                  <c:v>171.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>176</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>172</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>217.58333333333331</c:v>
+                  <c:v>217.5833333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>214.33333333333331</c:v>
+                  <c:v>214.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>217.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>232.41666666666669</c:v>
+                  <c:v>232.4166666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>235.66666666666669</c:v>
+                  <c:v>235.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>232.75</c:v>
@@ -1344,7 +1412,7 @@
                   <c:v>68.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.670000000000002</c:v>
+                  <c:v>17.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>40.67</c:v>
@@ -1353,7 +1421,7 @@
                   <c:v>63.67</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>32.17</c:v>
@@ -1362,7 +1430,7 @@
                   <c:v>44.17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>32.17</c:v>
@@ -1373,6 +1441,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1396,28 +1465,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-222</c:v>
+                  <c:v>-222.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-178</c:v>
+                  <c:v>-178.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-72</c:v>
+                  <c:v>-72.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-28</c:v>
+                  <c:v>-28.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>219.66666666666669</c:v>
+                  <c:v>219.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>230.33333333333331</c:v>
+                  <c:v>230.3333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,10 +1510,10 @@
                   <c:v>46.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.24666666666667</c:v>
+                  <c:v>93.24666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.586666666666673</c:v>
+                  <c:v>88.58666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>58.42</c:v>
@@ -1455,6 +1524,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1482,10 +1552,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>275</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>275</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,14 +1567,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.909000000000006</c:v>
+                  <c:v>97.909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1530,10 +1601,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-275</c:v>
+                  <c:v>-275.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-275</c:v>
+                  <c:v>-275.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,23 +1616,357 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.909000000000006</c:v>
+                  <c:v>97.909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="147965056"/>
-        <c:axId val="147966976"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2092663960"/>
+        <c:axId val="2092669544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147965056"/>
+        <c:axId val="2092663960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Horizontal Conductor Coordinate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092669544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2092669544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductor Height</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092663960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000002" l="0.700000000000001" r="0.700000000000001" t="0.750000000000002" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>raise1!$B$5</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Raise Test 1</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hot Wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>raise1!$D$5:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>raise1!$E$5:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ground-wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>raise1!$M$5:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>raise1!$N$5:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>15.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Right ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>raise1!$Q$7:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>raise1!$P$5:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Left ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>raise1!$Q$5:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>raise1!$P$5:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2103145800"/>
+        <c:axId val="2103151368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2103145800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1580,18 +1985,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147966976"/>
+        <c:crossAx val="2103151368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147966976"/>
+        <c:axId val="2103151368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1611,10 +2020,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147965056"/>
+        <c:crossAx val="2103145800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1622,12 +2034,669 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.700000000000001" r="0.700000000000001" t="0.750000000000002" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>raise2!$B$5</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Raise Test 2</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hot Wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>raise2!$D$5:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>raise2!$E$5:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ground-wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>raise2!$M$5:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>raise2!$N$5:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Right ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>raise2!$Q$7:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>raise2!$P$5:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Left ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>raise2!$Q$5:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>raise2!$P$5:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2103518456"/>
+        <c:axId val="2104433512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2103518456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Horizontal Conductor Coordinate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2104433512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2104433512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductor Height</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2103518456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000002" l="0.700000000000001" r="0.700000000000001" t="0.750000000000002" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>raise3!$B$5</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Raise Test 3</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hot Wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>raise3!$D$5:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>raise3!$E$5:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ground-wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>raise3!$M$5:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>raise3!$N$5:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Right ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>raise3!$Q$7:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>raise3!$P$5:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Left ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>raise3!$Q$5:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>raise3!$P$5:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2102457784"/>
+        <c:axId val="2047553160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2102457784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Horizontal Conductor Coordinate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2047553160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2047553160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductor Height</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2102457784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000002" l="0.700000000000001" r="0.700000000000001" t="0.750000000000002" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1635,7 +2704,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1650,11 +2729,14 @@
         </c:strRef>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1677,31 +2759,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-25</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20</c:v>
+                  <c:v>-20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15</c:v>
+                  <c:v>-15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,35 +2795,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1765,13 +2848,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-23</c:v>
+                  <c:v>-23.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,17 +2866,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1821,10 +2905,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,14 +2920,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>37.800000000000004</c:v>
+                  <c:v>37.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1869,10 +2954,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-45</c:v>
+                  <c:v>-45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-45</c:v>
+                  <c:v>-45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,23 +2969,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>37.800000000000004</c:v>
+                  <c:v>37.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="141705216"/>
-        <c:axId val="141707136"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2093053736"/>
+        <c:axId val="2093059320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141705216"/>
+        <c:axId val="2093053736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1919,18 +3014,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141707136"/>
+        <c:crossAx val="2093059320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141707136"/>
+        <c:axId val="2093059320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1950,10 +3049,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141705216"/>
+        <c:crossAx val="2093053736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1961,12 +3063,15 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.700000000000001" r="0.700000000000001" t="0.750000000000002" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1974,7 +3079,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1988,12 +3103,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2034,13 +3151,13 @@
                   <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,7 +3175,7 @@
                   <c:v>32.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44.17</c:v>
@@ -2067,20 +3184,21 @@
                   <c:v>32.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2110,7 +3228,7 @@
                   <c:v>4.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2128,11 +3246,12 @@
                   <c:v>55.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2160,10 +3279,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,14 +3294,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>57.9285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2208,10 +3328,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2223,23 +3343,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>57.9285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="142062336"/>
-        <c:axId val="142064256"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2092498952"/>
+        <c:axId val="2092504536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142062336"/>
+        <c:axId val="2092498952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2257,19 +3387,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142064256"/>
+        <c:crossAx val="2092504536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142064256"/>
+        <c:axId val="2092504536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2288,24 +3421,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142062336"/>
+        <c:crossAx val="2092498952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.700000000000001" r="0.700000000000001" t="0.750000000000002" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2313,7 +3450,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2327,12 +3474,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2373,13 +3522,13 @@
                   <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.670000000000002</c:v>
+                  <c:v>18.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.329999999999998</c:v>
+                  <c:v>19.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,7 +3546,7 @@
                   <c:v>32.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44.17</c:v>
@@ -2406,20 +3555,21 @@
                   <c:v>32.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2466,6 +3616,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2493,10 +3644,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2508,14 +3659,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>57.9285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2541,10 +3693,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,23 +3708,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>57.9285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="140219520"/>
-        <c:axId val="140221440"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2093129736"/>
+        <c:axId val="2093135320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140219520"/>
+        <c:axId val="2093129736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2590,19 +3752,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140221440"/>
+        <c:crossAx val="2093135320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140221440"/>
+        <c:axId val="2093135320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2621,24 +3786,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140219520"/>
+        <c:crossAx val="2093129736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.700000000000001" r="0.700000000000001" t="0.750000000000002" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2646,7 +3815,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2660,12 +3839,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2724,13 +3905,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45.08</c:v>
@@ -2753,6 +3934,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2776,10 +3958,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-11</c:v>
+                  <c:v>-11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8</c:v>
+                  <c:v>-8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2799,6 +3981,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2841,14 +4024,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>55.292999999999999</c:v>
+                  <c:v>55.293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2889,23 +4073,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>55.292999999999999</c:v>
+                  <c:v>55.293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="112296320"/>
-        <c:axId val="112298240"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2093188344"/>
+        <c:axId val="2093193928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112296320"/>
+        <c:axId val="2093188344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2923,19 +4117,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112298240"/>
+        <c:crossAx val="2093193928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112298240"/>
+        <c:axId val="2093193928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2954,24 +4151,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112296320"/>
+        <c:crossAx val="2093188344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.700000000000001" r="0.700000000000001" t="0.750000000000002" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2979,7 +4180,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2993,12 +4204,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3030,7 +4243,7 @@
                   <c:v>-33.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-18.579999999999998</c:v>
+                  <c:v>-18.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-15.33</c:v>
@@ -3042,7 +4255,7 @@
                   <c:v>-11.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11</c:v>
+                  <c:v>-11.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-10.67</c:v>
@@ -3057,35 +4270,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3132,6 +4346,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3174,14 +4389,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72.712500000000006</c:v>
+                  <c:v>72.7125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3222,23 +4438,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72.712500000000006</c:v>
+                  <c:v>72.7125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="115879296"/>
-        <c:axId val="115897856"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2092544712"/>
+        <c:axId val="2092550296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115879296"/>
+        <c:axId val="2092544712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3256,19 +4482,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115897856"/>
+        <c:crossAx val="2092550296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115897856"/>
+        <c:axId val="2092550296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3287,24 +4516,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115879296"/>
+        <c:crossAx val="2092544712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.700000000000001" r="0.700000000000001" t="0.750000000000002" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3312,7 +4545,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3326,12 +4569,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3357,7 +4602,7 @@
                   <c:v>-37.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-25</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-12.5</c:v>
@@ -3366,7 +4611,7 @@
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>36.5</c:v>
@@ -3381,26 +4626,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3453,6 +4699,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3480,10 +4727,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3498,11 +4745,12 @@
                   <c:v>49.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3528,10 +4776,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-60</c:v>
+                  <c:v>-60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-60</c:v>
+                  <c:v>-60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3546,20 +4794,30 @@
                   <c:v>49.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="147388288"/>
-        <c:axId val="147730432"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2092603160"/>
+        <c:axId val="2092608744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147388288"/>
+        <c:axId val="2092603160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3577,19 +4835,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147730432"/>
+        <c:crossAx val="2092608744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147730432"/>
+        <c:axId val="2092608744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3608,24 +4869,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147388288"/>
+        <c:crossAx val="2092603160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.700000000000001" r="0.700000000000001" t="0.750000000000002" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3633,7 +4898,17 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3647,12 +4922,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3675,22 +4952,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-32.583333333333336</c:v>
+                  <c:v>-32.58333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-17.416666666666668</c:v>
+                  <c:v>-17.41666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-32.583333333333336</c:v>
+                  <c:v>-32.58333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.416666666666668</c:v>
+                  <c:v>17.41666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>32.58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.416666666666668</c:v>
+                  <c:v>17.41666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3722,6 +4999,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3745,10 +5023,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-25</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3768,6 +5046,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3795,10 +5074,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3813,11 +5092,12 @@
                   <c:v>57.5715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3843,10 +5123,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-60</c:v>
+                  <c:v>-60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-60</c:v>
+                  <c:v>-60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3861,20 +5141,30 @@
                   <c:v>57.5715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="147783040"/>
-        <c:axId val="147875328"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2093241640"/>
+        <c:axId val="2093247224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147783040"/>
+        <c:axId val="2093241640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3892,19 +5182,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147875328"/>
+        <c:crossAx val="2093247224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147875328"/>
+        <c:axId val="2093247224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3923,24 +5216,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147783040"/>
+        <c:crossAx val="2093241640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.700000000000001" r="0.700000000000001" t="0.750000000000002" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3948,7 +5245,17 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3962,12 +5269,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3993,7 +5302,7 @@
                   <c:v>-234.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-200</c:v>
+                  <c:v>-200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-165.5</c:v>
@@ -4002,28 +5311,28 @@
                   <c:v>-84.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-15.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>124</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171</c:v>
+                  <c:v>171.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>176</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>172</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4062,7 +5371,7 @@
                   <c:v>68.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.670000000000002</c:v>
+                  <c:v>17.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>40.67</c:v>
@@ -4073,6 +5382,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4096,22 +5406,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-222</c:v>
+                  <c:v>-222.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-178</c:v>
+                  <c:v>-178.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-72</c:v>
+                  <c:v>-72.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-28</c:v>
+                  <c:v>-28.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4135,14 +5445,15 @@
                   <c:v>46.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.24666666666667</c:v>
+                  <c:v>93.24666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.586666666666673</c:v>
+                  <c:v>88.58666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4170,10 +5481,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4185,14 +5496,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.909000000000006</c:v>
+                  <c:v>97.909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4218,10 +5530,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-150</c:v>
+                  <c:v>-150.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-150</c:v>
+                  <c:v>-150.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4233,23 +5545,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.909000000000006</c:v>
+                  <c:v>97.909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="149078400"/>
-        <c:axId val="149080320"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2047079320"/>
+        <c:axId val="2047088280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149078400"/>
+        <c:axId val="2047079320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4267,19 +5589,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149080320"/>
+        <c:crossAx val="2047088280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149080320"/>
+        <c:axId val="2047088280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4298,24 +5623,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149078400"/>
+        <c:crossAx val="2047079320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.700000000000001" r="0.700000000000001" t="0.750000000000002" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4375,6 +5704,117 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4955,29 +6395,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4996,7 +6436,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5013,34 +6453,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="83" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="86"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -5475,7 +6915,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -5485,15 +6925,15 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="89"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -5583,41 +7023,46 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
     <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
 &amp;"-,Regular"&amp;K4D4D4D
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="46" customWidth="1"/>
-    <col min="4" max="10" width="10.5703125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="41" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="49" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="46" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="44" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="49" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="41" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="44" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="49" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5636,7 +7081,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="38"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -5653,34 +7098,34 @@
       <c r="N2" s="40"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="83" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="86"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -6171,7 +7616,7 @@
       <c r="L13" s="44"/>
       <c r="O13" s="79"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -6209,10 +7654,10 @@
       <c r="O14" s="79"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="61" t="s">
         <v>60</v>
       </c>
@@ -6244,8 +7689,8 @@
       <c r="O15" s="79"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="62" t="s">
         <v>61</v>
       </c>
@@ -6498,41 +7943,1483 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
     <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
 &amp;"-,Regular"&amp;K4D4D4D
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="27" customFormat="1">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
+      <c r="A4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="74">
+        <v>-10</v>
+      </c>
+      <c r="E5" s="74">
+        <v>10</v>
+      </c>
+      <c r="F5" s="74">
+        <v>1</v>
+      </c>
+      <c r="G5" s="74">
+        <v>1</v>
+      </c>
+      <c r="H5" s="74">
+        <v>1</v>
+      </c>
+      <c r="I5" s="74">
+        <v>500</v>
+      </c>
+      <c r="J5" s="74">
+        <v>500</v>
+      </c>
+      <c r="K5" s="79">
+        <v>0</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="74">
+        <v>0</v>
+      </c>
+      <c r="N5" s="74">
+        <v>15</v>
+      </c>
+      <c r="O5" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="32">
+        <f>MAX(E5:E25,N5:N26)*1.05</f>
+        <v>15.75</v>
+      </c>
+      <c r="Q5" s="32">
+        <f>B13</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="74">
+        <v>0</v>
+      </c>
+      <c r="E6" s="74">
+        <v>10</v>
+      </c>
+      <c r="F6" s="74">
+        <v>1</v>
+      </c>
+      <c r="G6" s="74">
+        <v>1</v>
+      </c>
+      <c r="H6" s="74">
+        <v>1</v>
+      </c>
+      <c r="I6" s="74">
+        <v>500</v>
+      </c>
+      <c r="J6" s="74">
+        <v>500</v>
+      </c>
+      <c r="K6" s="79">
+        <v>120</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="P6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32">
+        <f>B13</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="73">
+        <v>10</v>
+      </c>
+      <c r="E7" s="73">
+        <v>10</v>
+      </c>
+      <c r="F7" s="73">
+        <v>1</v>
+      </c>
+      <c r="G7" s="73">
+        <v>1</v>
+      </c>
+      <c r="H7" s="73">
+        <v>1</v>
+      </c>
+      <c r="I7" s="73">
+        <v>500</v>
+      </c>
+      <c r="J7" s="73">
+        <v>500</v>
+      </c>
+      <c r="K7" s="80">
+        <v>240</v>
+      </c>
+      <c r="L7" s="74"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32">
+        <f>B14</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18">
+        <v>60</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32">
+        <f>B14</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18">
+        <v>100</v>
+      </c>
+      <c r="L9" s="74"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="17">
+        <v>250</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+      <c r="L11" s="74"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3</v>
+      </c>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17">
+        <v>-50</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="74"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1">
+      <c r="A14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20">
+        <v>50</v>
+      </c>
+      <c r="L14" s="74"/>
+    </row>
+    <row r="15" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A15" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="89"/>
+      <c r="L15" s="74"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="74"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="L17" s="74"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="L18" s="74"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="77"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="74"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="L20" s="74"/>
+      <c r="N20" s="65"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="N21" s="65"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="77"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="80"/>
+      <c r="N22" s="65"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="N23" s="65"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="N24" s="65"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="77"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="80"/>
+      <c r="N25" s="65"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="76"/>
+      <c r="N26" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A15:B16"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
+    <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
+&amp;"-,Regular"&amp;K4D4D4D
+&amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="27" customFormat="1">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
+      <c r="A4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="74">
+        <v>-10</v>
+      </c>
+      <c r="E5" s="74">
+        <v>20</v>
+      </c>
+      <c r="F5" s="74">
+        <v>1</v>
+      </c>
+      <c r="G5" s="74">
+        <v>1</v>
+      </c>
+      <c r="H5" s="74">
+        <v>1</v>
+      </c>
+      <c r="I5" s="74">
+        <v>500</v>
+      </c>
+      <c r="J5" s="74">
+        <v>500</v>
+      </c>
+      <c r="K5" s="79">
+        <v>0</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="74">
+        <v>0</v>
+      </c>
+      <c r="N5" s="74">
+        <v>25</v>
+      </c>
+      <c r="O5" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="32">
+        <f>MAX(E5:E25,N5:N26)*1.05</f>
+        <v>26.25</v>
+      </c>
+      <c r="Q5" s="32">
+        <f>B13</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="74">
+        <v>0</v>
+      </c>
+      <c r="E6" s="74">
+        <v>20</v>
+      </c>
+      <c r="F6" s="74">
+        <v>1</v>
+      </c>
+      <c r="G6" s="74">
+        <v>1</v>
+      </c>
+      <c r="H6" s="74">
+        <v>1</v>
+      </c>
+      <c r="I6" s="74">
+        <v>500</v>
+      </c>
+      <c r="J6" s="74">
+        <v>500</v>
+      </c>
+      <c r="K6" s="79">
+        <v>120</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="P6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32">
+        <f>B13</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="73">
+        <v>10</v>
+      </c>
+      <c r="E7" s="73">
+        <v>20</v>
+      </c>
+      <c r="F7" s="73">
+        <v>1</v>
+      </c>
+      <c r="G7" s="73">
+        <v>1</v>
+      </c>
+      <c r="H7" s="73">
+        <v>1</v>
+      </c>
+      <c r="I7" s="73">
+        <v>500</v>
+      </c>
+      <c r="J7" s="73">
+        <v>500</v>
+      </c>
+      <c r="K7" s="80">
+        <v>240</v>
+      </c>
+      <c r="L7" s="74"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32">
+        <f>B14</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18">
+        <v>60</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32">
+        <f>B14</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18">
+        <v>100</v>
+      </c>
+      <c r="L9" s="74"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="17">
+        <v>250</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+      <c r="L11" s="74"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3</v>
+      </c>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17">
+        <v>-50</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="74"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1">
+      <c r="A14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20">
+        <v>50</v>
+      </c>
+      <c r="L14" s="74"/>
+    </row>
+    <row r="15" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A15" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="89"/>
+      <c r="L15" s="74"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="74"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="L17" s="74"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="L18" s="74"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="77"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="74"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="L20" s="74"/>
+      <c r="N20" s="65"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="N21" s="65"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="77"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="80"/>
+      <c r="N22" s="65"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="N23" s="65"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="N24" s="65"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="77"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="80"/>
+      <c r="N25" s="65"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="76"/>
+      <c r="N26" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A15:B16"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
+    <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
+&amp;"-,Regular"&amp;K4D4D4D
+&amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="27" customFormat="1">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
+      <c r="A4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="74">
+        <v>-10</v>
+      </c>
+      <c r="E5" s="74">
+        <v>30</v>
+      </c>
+      <c r="F5" s="74">
+        <v>1</v>
+      </c>
+      <c r="G5" s="74">
+        <v>1</v>
+      </c>
+      <c r="H5" s="74">
+        <v>1</v>
+      </c>
+      <c r="I5" s="74">
+        <v>500</v>
+      </c>
+      <c r="J5" s="74">
+        <v>500</v>
+      </c>
+      <c r="K5" s="79">
+        <v>0</v>
+      </c>
+      <c r="L5" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="74">
+        <v>0</v>
+      </c>
+      <c r="N5" s="74">
+        <v>35</v>
+      </c>
+      <c r="O5" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="32">
+        <f>MAX(E5:E25,N5:N26)*1.05</f>
+        <v>36.75</v>
+      </c>
+      <c r="Q5" s="32">
+        <f>B13</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="74">
+        <v>0</v>
+      </c>
+      <c r="E6" s="74">
+        <v>30</v>
+      </c>
+      <c r="F6" s="74">
+        <v>1</v>
+      </c>
+      <c r="G6" s="74">
+        <v>1</v>
+      </c>
+      <c r="H6" s="74">
+        <v>1</v>
+      </c>
+      <c r="I6" s="74">
+        <v>500</v>
+      </c>
+      <c r="J6" s="74">
+        <v>500</v>
+      </c>
+      <c r="K6" s="79">
+        <v>120</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="P6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32">
+        <f>B13</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="73">
+        <v>10</v>
+      </c>
+      <c r="E7" s="73">
+        <v>30</v>
+      </c>
+      <c r="F7" s="73">
+        <v>1</v>
+      </c>
+      <c r="G7" s="73">
+        <v>1</v>
+      </c>
+      <c r="H7" s="73">
+        <v>1</v>
+      </c>
+      <c r="I7" s="73">
+        <v>500</v>
+      </c>
+      <c r="J7" s="73">
+        <v>500</v>
+      </c>
+      <c r="K7" s="80">
+        <v>240</v>
+      </c>
+      <c r="L7" s="74"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32">
+        <f>B14</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18">
+        <v>60</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32">
+        <f>B14</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18">
+        <v>100</v>
+      </c>
+      <c r="L9" s="74"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="17">
+        <v>250</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+      <c r="L11" s="74"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3</v>
+      </c>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17">
+        <v>-50</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="74"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1">
+      <c r="A14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="20">
+        <v>50</v>
+      </c>
+      <c r="L14" s="74"/>
+    </row>
+    <row r="15" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A15" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="89"/>
+      <c r="L15" s="74"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="74"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="L17" s="74"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="L18" s="74"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="77"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="74"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="L20" s="74"/>
+      <c r="N20" s="65"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="N21" s="65"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="77"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="80"/>
+      <c r="N22" s="65"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="N23" s="65"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="N24" s="65"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="77"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="80"/>
+      <c r="N25" s="65"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="76"/>
+      <c r="N26" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A15:B16"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
+    <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
+&amp;"-,Regular"&amp;K4D4D4D
+&amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6551,7 +9438,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -6568,34 +9455,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="83" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="86"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -7030,7 +9917,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -7040,15 +9927,15 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="89"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -7138,41 +10025,46 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
     <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
 &amp;"-,Regular"&amp;K4D4D4D
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7191,7 +10083,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -7208,34 +10100,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="83" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="86"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -7670,7 +10562,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -7680,15 +10572,15 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="89"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -7778,41 +10670,46 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
     <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
 &amp;"-,Regular"&amp;K4D4D4D
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P6" sqref="P6:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7831,7 +10728,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -7848,34 +10745,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="83" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="86"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -8299,7 +11196,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -8309,15 +11206,15 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="89"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -8407,41 +11304,46 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
     <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
 &amp;"-,Regular"&amp;K4D4D4D
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.5703125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -8460,7 +11362,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -8477,34 +11379,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="83" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="86"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -8934,7 +11836,7 @@
       </c>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -8944,15 +11846,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="89"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -9042,41 +11944,46 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
     <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
 &amp;"-,Regular"&amp;K4D4D4D
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.5703125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:18" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -9095,7 +12002,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:18" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:18" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -9112,34 +12019,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="83" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="86"/>
-    </row>
-    <row r="4" spans="1:18" ht="38.25">
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:18" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -9468,8 +12375,8 @@
         <v>120</v>
       </c>
       <c r="L10" s="74"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="16" t="s">
@@ -9506,8 +12413,8 @@
         <v>240</v>
       </c>
       <c r="L11" s="74"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="16" t="s">
@@ -9581,7 +12488,7 @@
       </c>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:18" ht="13.5" thickBot="1">
+    <row r="14" spans="1:18" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -9591,15 +12498,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="89"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -9689,41 +12596,46 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
     <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
 &amp;"-,Regular"&amp;K4D4D4D
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9742,7 +12654,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -9759,34 +12671,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="83" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="86"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -10161,7 +13073,7 @@
       <c r="L13" s="9"/>
       <c r="O13" s="49"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -10172,16 +13084,16 @@
       <c r="O14" s="49"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="89"/>
       <c r="L15" s="9"/>
       <c r="O15" s="49"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -10271,41 +13183,46 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
     <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
 &amp;"-,Regular"&amp;K4D4D4D
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="46" customWidth="1"/>
-    <col min="4" max="10" width="10.5703125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="41" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="49" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="46" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="44" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="49" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="41" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="44" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="49" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -10324,7 +13241,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="38"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -10341,34 +13258,34 @@
       <c r="N2" s="40"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="83" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="86"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -10727,7 +13644,7 @@
       <c r="K13" s="50"/>
       <c r="L13" s="44"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -10737,15 +13654,15 @@
       <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="89"/>
       <c r="L15" s="44"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="47"/>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
@@ -10835,41 +13752,46 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
     <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
 &amp;"-,Regular"&amp;K4D4D4D
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.5703125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -10888,7 +13810,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -10905,34 +13827,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="83" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="86"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="87"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -11400,7 +14322,7 @@
       </c>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -11437,10 +14359,10 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="76" t="s">
         <v>60</v>
       </c>
@@ -11471,8 +14393,8 @@
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="77" t="s">
         <v>61</v>
       </c>
@@ -11571,13 +14493,18 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
     <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
 &amp;"-,Regular"&amp;K4D4D4D
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/practice_xcs.xlsx
+++ b/practice_xcs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr backupFile="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="27" r:id="rId1"/>
@@ -1096,11 +1096,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="139758976"/>
-        <c:axId val="139785728"/>
+        <c:axId val="85842176"/>
+        <c:axId val="85721856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="139758976"/>
+        <c:axId val="85842176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,12 +1125,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139785728"/>
+        <c:crossAx val="85721856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139785728"/>
+        <c:axId val="85721856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1156,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139758976"/>
+        <c:crossAx val="85842176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1170,7 +1170,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000244" l="0.7000000000000014" r="0.7000000000000014" t="0.75000000000000244" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1192,6 +1192,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1219,22 +1220,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-32.583333333333336</c:v>
+                  <c:v>-32.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-17.416666666666668</c:v>
+                  <c:v>-17.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-32.583333333333336</c:v>
+                  <c:v>-32.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.416666666666668</c:v>
+                  <c:v>17.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>32.58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.416666666666668</c:v>
+                  <c:v>17.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1411,12 +1412,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="89456000"/>
-        <c:axId val="89601536"/>
+        <c:axId val="110569728"/>
+        <c:axId val="110580096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89456000"/>
+        <c:axId val="110569728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,15 +1437,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89601536"/>
+        <c:crossAx val="110580096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89601536"/>
+        <c:axId val="110580096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,23 +1468,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89456000"/>
+        <c:crossAx val="110569728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000211" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000222" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1505,6 +1508,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1677,10 +1681,10 @@
                   <c:v>46.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.24666666666667</c:v>
+                  <c:v>93.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.586666666666673</c:v>
+                  <c:v>88.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,7 +1731,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.909000000000006</c:v>
+                  <c:v>97.902000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1775,7 +1779,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.909000000000006</c:v>
+                  <c:v>97.902000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1784,12 +1788,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="89765760"/>
-        <c:axId val="89653248"/>
+        <c:axId val="110752512"/>
+        <c:axId val="110754432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89765760"/>
+        <c:axId val="110752512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1810,15 +1813,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89653248"/>
+        <c:crossAx val="110754432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89653248"/>
+        <c:axId val="110754432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,23 +1844,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89765760"/>
+        <c:crossAx val="110752512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000211" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000222" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1878,6 +1884,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1941,19 +1948,19 @@
                   <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>217.58333333333331</c:v>
+                  <c:v>217.58</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>214.33333333333331</c:v>
+                  <c:v>214.33</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>217.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>232.41666666666669</c:v>
+                  <c:v>232.41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>235.66666666666669</c:v>
+                  <c:v>235.66</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>232.75</c:v>
@@ -2065,10 +2072,10 @@
                   <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>219.66666666666669</c:v>
+                  <c:v>219.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>230.33333333333331</c:v>
+                  <c:v>230.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2092,10 +2099,10 @@
                   <c:v>46.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.24666666666667</c:v>
+                  <c:v>93.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.586666666666673</c:v>
+                  <c:v>88.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>58.42</c:v>
@@ -2148,7 +2155,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.909000000000006</c:v>
+                  <c:v>97.902000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2196,7 +2203,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.909000000000006</c:v>
+                  <c:v>97.902000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2205,12 +2212,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="89710976"/>
-        <c:axId val="89712896"/>
+        <c:axId val="110685184"/>
+        <c:axId val="111289472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89710976"/>
+        <c:axId val="110685184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,15 +2237,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89712896"/>
+        <c:crossAx val="111289472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89712896"/>
+        <c:axId val="111289472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,23 +2268,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89710976"/>
+        <c:crossAx val="110685184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000211" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000222" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2299,6 +2308,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2494,12 +2504,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="112245376"/>
-        <c:axId val="112255744"/>
+        <c:axId val="117474816"/>
+        <c:axId val="117476736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112245376"/>
+        <c:axId val="117474816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,15 +2529,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112255744"/>
+        <c:crossAx val="117476736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112255744"/>
+        <c:axId val="117476736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2550,23 +2560,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112245376"/>
+        <c:crossAx val="117474816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000211" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000222" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2588,6 +2600,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2783,12 +2796,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="118400128"/>
-        <c:axId val="118402048"/>
+        <c:axId val="117555200"/>
+        <c:axId val="117557120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118400128"/>
+        <c:axId val="117555200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,15 +2821,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118402048"/>
+        <c:crossAx val="117557120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118402048"/>
+        <c:axId val="117557120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,23 +2852,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118400128"/>
+        <c:crossAx val="117555200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000211" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000222" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3073,12 +3088,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="112270720"/>
-        <c:axId val="112276992"/>
+        <c:axId val="102193408"/>
+        <c:axId val="102207872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112270720"/>
+        <c:axId val="102193408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,12 +3117,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112276992"/>
+        <c:crossAx val="102207872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112276992"/>
+        <c:axId val="102207872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3134,7 +3148,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112270720"/>
+        <c:crossAx val="102193408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3148,7 +3162,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000211" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000222" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3354,11 +3368,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72110464"/>
-        <c:axId val="72112384"/>
+        <c:axId val="85765504"/>
+        <c:axId val="85771776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72110464"/>
+        <c:axId val="85765504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3383,12 +3397,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72112384"/>
+        <c:crossAx val="85771776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72112384"/>
+        <c:axId val="85771776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3414,7 +3428,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72110464"/>
+        <c:crossAx val="85765504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3428,7 +3442,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3694,12 +3708,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="85617664"/>
-        <c:axId val="85628032"/>
+        <c:axId val="101148544"/>
+        <c:axId val="101158912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85617664"/>
+        <c:axId val="101148544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3724,12 +3737,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85628032"/>
+        <c:crossAx val="101158912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85628032"/>
+        <c:axId val="101158912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3755,7 +3768,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85617664"/>
+        <c:crossAx val="101148544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3769,7 +3782,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000211" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000222" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3791,6 +3804,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4034,12 +4048,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="85685760"/>
-        <c:axId val="85687680"/>
+        <c:axId val="101232640"/>
+        <c:axId val="101234560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85685760"/>
+        <c:axId val="101232640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4060,15 +4073,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85687680"/>
+        <c:crossAx val="101234560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85687680"/>
+        <c:axId val="101234560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4090,23 +4104,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85685760"/>
+        <c:crossAx val="101232640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000211" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000222" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4128,6 +4144,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4371,12 +4388,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="86585344"/>
-        <c:axId val="86587264"/>
+        <c:axId val="101259520"/>
+        <c:axId val="101294464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86585344"/>
+        <c:axId val="101259520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4397,15 +4413,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86587264"/>
+        <c:crossAx val="101294464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86587264"/>
+        <c:axId val="101294464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4427,23 +4444,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86585344"/>
+        <c:crossAx val="101259520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000211" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000222" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4465,6 +4484,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4702,12 +4722,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="87328640"/>
-        <c:axId val="87334912"/>
+        <c:axId val="101798656"/>
+        <c:axId val="101800576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87328640"/>
+        <c:axId val="101798656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4728,15 +4747,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87334912"/>
+        <c:crossAx val="101800576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87334912"/>
+        <c:axId val="101800576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4758,23 +4778,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87328640"/>
+        <c:crossAx val="101798656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000211" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000222" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4796,6 +4818,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5033,12 +5056,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="87372160"/>
-        <c:axId val="87374080"/>
+        <c:axId val="101903360"/>
+        <c:axId val="101721216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87372160"/>
+        <c:axId val="101903360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5059,15 +5081,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87374080"/>
+        <c:crossAx val="101721216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87374080"/>
+        <c:axId val="101721216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5089,23 +5112,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87372160"/>
+        <c:crossAx val="101903360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000211" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000222" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5127,6 +5152,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5364,12 +5390,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="87419520"/>
-        <c:axId val="87520000"/>
+        <c:axId val="108430848"/>
+        <c:axId val="108432768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87419520"/>
+        <c:axId val="108430848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5390,15 +5415,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87520000"/>
+        <c:crossAx val="108432768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87520000"/>
+        <c:axId val="108432768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5420,23 +5446,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87419520"/>
+        <c:crossAx val="108430848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000211" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000222" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5458,6 +5486,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5683,12 +5712,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="89515136"/>
-        <c:axId val="89517056"/>
+        <c:axId val="108335104"/>
+        <c:axId val="108337024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89515136"/>
+        <c:axId val="108335104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5709,15 +5737,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89517056"/>
+        <c:crossAx val="108337024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89517056"/>
+        <c:axId val="108337024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5739,23 +5768,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89515136"/>
+        <c:crossAx val="108335104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000107" r="0.70000000000000107" t="0.75000000000000211" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000118" r="0.70000000000000118" t="0.75000000000000222" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6583,8 +6614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -7002,7 +7033,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:Q6"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -7147,7 +7178,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="52">
-        <v>-32.583333333333336</v>
+        <v>-32.58</v>
       </c>
       <c r="E5" s="52">
         <v>28.5</v>
@@ -7156,10 +7187,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="52">
-        <v>1.2929999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="H5" s="52">
-        <v>1.2929999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="I5" s="52">
         <v>115</v>
@@ -7202,7 +7233,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="52">
-        <v>-17.416666666666668</v>
+        <v>-17.41</v>
       </c>
       <c r="E6" s="52">
         <v>34.5</v>
@@ -7211,10 +7242,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="52">
-        <v>1.2929999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="H6" s="52">
-        <v>1.2929999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="I6" s="52">
         <v>115</v>
@@ -7256,7 +7287,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="51">
-        <v>-32.583333333333336</v>
+        <v>-32.58</v>
       </c>
       <c r="E7" s="51">
         <v>40.5</v>
@@ -7265,10 +7296,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="51">
-        <v>1.2929999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="H7" s="51">
-        <v>1.2929999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="I7" s="51">
         <v>115</v>
@@ -7298,7 +7329,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="52">
-        <v>17.416666666666668</v>
+        <v>17.41</v>
       </c>
       <c r="E8" s="52">
         <v>28.5</v>
@@ -7307,10 +7338,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="52">
-        <v>1.2929999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="H8" s="52">
-        <v>1.2929999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="I8" s="52">
         <v>115</v>
@@ -7350,10 +7381,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="52">
-        <v>1.2929999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="H9" s="52">
-        <v>1.2929999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="I9" s="52">
         <v>115</v>
@@ -7379,7 +7410,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="51">
-        <v>17.416666666666668</v>
+        <v>17.41</v>
       </c>
       <c r="E10" s="51">
         <v>40.5</v>
@@ -7388,10 +7419,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="51">
-        <v>1.2929999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="H10" s="51">
-        <v>1.2929999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="I10" s="51">
         <v>115</v>
@@ -7571,7 +7602,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:Q6"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -7753,7 +7784,7 @@
       </c>
       <c r="P5" s="32">
         <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>97.909000000000006</v>
+        <v>97.902000000000001</v>
       </c>
       <c r="Q5" s="32">
         <f>B13</f>
@@ -7959,7 +7990,7 @@
         <v>136</v>
       </c>
       <c r="N9" s="74">
-        <v>93.24666666666667</v>
+        <v>93.24</v>
       </c>
       <c r="O9" s="79">
         <v>1</v>
@@ -8006,7 +8037,7 @@
         <v>164</v>
       </c>
       <c r="N10" s="74">
-        <v>88.586666666666673</v>
+        <v>88.58</v>
       </c>
       <c r="O10" s="79">
         <v>1</v>
@@ -8032,10 +8063,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="74">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="H11" s="74">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="I11" s="74">
         <v>345</v>
@@ -8068,10 +8099,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="74">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="H12" s="74">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="I12" s="74">
         <v>345</v>
@@ -8104,10 +8135,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="73">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="H13" s="73">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="I13" s="73">
         <v>345</v>
@@ -8140,10 +8171,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="74">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="H14" s="74">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="I14" s="74">
         <v>115</v>
@@ -8174,10 +8205,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="74">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="H15" s="74">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="I15" s="74">
         <v>115</v>
@@ -8206,10 +8237,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="73">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="H16" s="73">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="I16" s="73">
         <v>115</v>
@@ -8312,7 +8343,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -8494,7 +8525,7 @@
       </c>
       <c r="P5" s="32">
         <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>97.909000000000006</v>
+        <v>97.902000000000001</v>
       </c>
       <c r="Q5" s="32">
         <f>B13</f>
@@ -8700,7 +8731,7 @@
         <v>136</v>
       </c>
       <c r="N9" s="74">
-        <v>93.24666666666667</v>
+        <v>93.24</v>
       </c>
       <c r="O9" s="79">
         <v>1</v>
@@ -8747,7 +8778,7 @@
         <v>164</v>
       </c>
       <c r="N10" s="74">
-        <v>88.586666666666673</v>
+        <v>88.58</v>
       </c>
       <c r="O10" s="79">
         <v>1</v>
@@ -8773,10 +8804,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="60">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="H11" s="60">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="I11" s="60">
         <v>345</v>
@@ -8791,7 +8822,7 @@
         <v>36</v>
       </c>
       <c r="M11" s="74">
-        <v>219.66666666666669</v>
+        <v>219.66</v>
       </c>
       <c r="N11" s="74">
         <v>58.42</v>
@@ -8820,10 +8851,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="60">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="H12" s="60">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="I12" s="60">
         <v>345</v>
@@ -8838,7 +8869,7 @@
         <v>69</v>
       </c>
       <c r="M12" s="74">
-        <v>230.33333333333331</v>
+        <v>230.33</v>
       </c>
       <c r="N12" s="74">
         <v>58.42</v>
@@ -8867,10 +8898,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="59">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="H13" s="59">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="I13" s="59">
         <v>345</v>
@@ -8904,10 +8935,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="60">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="H14" s="60">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="I14" s="60">
         <v>115</v>
@@ -8939,10 +8970,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="60">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="H15" s="60">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="I15" s="60">
         <v>115</v>
@@ -8972,10 +9003,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="59">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="H16" s="59">
-        <v>1.7350000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="I16" s="59">
         <v>115</v>
@@ -8994,7 +9025,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="60">
-        <v>217.58333333333331</v>
+        <v>217.58</v>
       </c>
       <c r="E17" s="60">
         <v>20.170000000000002</v>
@@ -9024,7 +9055,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="60">
-        <v>214.33333333333331</v>
+        <v>214.33</v>
       </c>
       <c r="E18" s="60">
         <v>32.17</v>
@@ -9084,7 +9115,7 @@
         <v>62</v>
       </c>
       <c r="D20" s="60">
-        <v>232.41666666666669</v>
+        <v>232.41</v>
       </c>
       <c r="E20" s="60">
         <v>20.170000000000002</v>
@@ -9115,7 +9146,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="60">
-        <v>235.66666666666669</v>
+        <v>235.66</v>
       </c>
       <c r="E21" s="60">
         <v>32.17</v>
@@ -10189,7 +10220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -10668,7 +10699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -11097,7 +11128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -13032,7 +13063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6:Q6"/>
     </sheetView>
   </sheetViews>

--- a/practice_xcs.xlsx
+++ b/practice_xcs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr backupFile="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="7"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" firstSheet="3" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="27" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="raise2" sheetId="24" r:id="rId18"/>
     <sheet name="raise3" sheetId="25" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -934,7 +934,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1112,11 +1111,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="139653120"/>
-        <c:axId val="139655424"/>
+        <c:axId val="71993600"/>
+        <c:axId val="75301248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="139653120"/>
+        <c:axId val="71993600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,16 +1136,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139655424"/>
+        <c:crossAx val="75301248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139655424"/>
+        <c:axId val="75301248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,25 +1166,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139653120"/>
+        <c:crossAx val="71993600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1446,11 +1442,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="55584640"/>
-        <c:axId val="55590912"/>
+        <c:axId val="73029888"/>
+        <c:axId val="73048448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55584640"/>
+        <c:axId val="73029888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,12 +1471,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55590912"/>
+        <c:crossAx val="73048448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55590912"/>
+        <c:axId val="73048448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,7 +1502,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55584640"/>
+        <c:crossAx val="73029888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1520,7 +1516,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1780,11 +1776,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="55605888"/>
-        <c:axId val="55616256"/>
+        <c:axId val="73337856"/>
+        <c:axId val="73352320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55605888"/>
+        <c:axId val="73337856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,12 +1805,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55616256"/>
+        <c:crossAx val="73352320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55616256"/>
+        <c:axId val="73352320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,7 +1836,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55605888"/>
+        <c:crossAx val="73337856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1854,7 +1850,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1876,7 +1872,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2114,11 +2109,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="55754112"/>
-        <c:axId val="55760384"/>
+        <c:axId val="73441280"/>
+        <c:axId val="73443200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55754112"/>
+        <c:axId val="73441280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,16 +2134,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55760384"/>
+        <c:crossAx val="73443200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55760384"/>
+        <c:axId val="73443200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,25 +2164,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55754112"/>
+        <c:crossAx val="73441280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2210,7 +2202,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2436,11 +2427,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="55869824"/>
-        <c:axId val="55871744"/>
+        <c:axId val="73491200"/>
+        <c:axId val="73493120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55869824"/>
+        <c:axId val="73491200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,16 +2452,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55871744"/>
+        <c:crossAx val="73493120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55871744"/>
+        <c:axId val="73493120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,25 +2482,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55869824"/>
+        <c:crossAx val="73491200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2532,7 +2520,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2752,11 +2739,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="69096576"/>
-        <c:axId val="69098496"/>
+        <c:axId val="74151424"/>
+        <c:axId val="74153344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69096576"/>
+        <c:axId val="74151424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2777,16 +2764,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69098496"/>
+        <c:crossAx val="74153344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69098496"/>
+        <c:axId val="74153344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,25 +2794,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69096576"/>
+        <c:crossAx val="74151424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3128,11 +3112,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70915968"/>
-        <c:axId val="70930432"/>
+        <c:axId val="74369280"/>
+        <c:axId val="74375552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70915968"/>
+        <c:axId val="74369280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3157,12 +3141,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70930432"/>
+        <c:crossAx val="74375552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70930432"/>
+        <c:axId val="74375552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3188,7 +3172,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70915968"/>
+        <c:crossAx val="74369280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3202,7 +3186,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3552,11 +3536,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="71387776"/>
-        <c:axId val="71574272"/>
+        <c:axId val="74866048"/>
+        <c:axId val="74876416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71387776"/>
+        <c:axId val="74866048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3581,12 +3565,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71574272"/>
+        <c:crossAx val="74876416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71574272"/>
+        <c:axId val="74876416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3612,7 +3596,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71387776"/>
+        <c:crossAx val="74866048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3626,7 +3610,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3844,11 +3828,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="71605632"/>
-        <c:axId val="71616000"/>
+        <c:axId val="74920320"/>
+        <c:axId val="74922240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71605632"/>
+        <c:axId val="74920320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3873,12 +3857,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71616000"/>
+        <c:crossAx val="74922240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71616000"/>
+        <c:axId val="74922240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3904,7 +3888,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71605632"/>
+        <c:crossAx val="74920320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3918,7 +3902,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4136,11 +4120,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="71807360"/>
-        <c:axId val="71809280"/>
+        <c:axId val="75015296"/>
+        <c:axId val="75017216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71807360"/>
+        <c:axId val="75015296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,12 +4149,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71809280"/>
+        <c:crossAx val="75017216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71809280"/>
+        <c:axId val="75017216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4180,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71807360"/>
+        <c:crossAx val="75015296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4210,7 +4194,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4428,11 +4412,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="71857280"/>
-        <c:axId val="71859200"/>
+        <c:axId val="75224960"/>
+        <c:axId val="75325440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71857280"/>
+        <c:axId val="75224960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4457,12 +4441,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71859200"/>
+        <c:crossAx val="75325440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71859200"/>
+        <c:axId val="75325440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4488,7 +4472,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71857280"/>
+        <c:crossAx val="75224960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4502,7 +4486,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4708,11 +4692,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="55097984"/>
-        <c:axId val="55100160"/>
+        <c:axId val="76708096"/>
+        <c:axId val="76796672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55097984"/>
+        <c:axId val="76708096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4737,12 +4721,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55100160"/>
+        <c:crossAx val="76796672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55100160"/>
+        <c:axId val="76796672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4768,7 +4752,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55097984"/>
+        <c:crossAx val="76708096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4782,7 +4766,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000162" r="0.70000000000000162" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5048,11 +5032,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="55115136"/>
-        <c:axId val="55252480"/>
+        <c:axId val="116417664"/>
+        <c:axId val="126937344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55115136"/>
+        <c:axId val="116417664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5077,12 +5061,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55252480"/>
+        <c:crossAx val="126937344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55252480"/>
+        <c:axId val="126937344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5108,7 +5092,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55115136"/>
+        <c:crossAx val="116417664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5122,7 +5106,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5388,11 +5372,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="55509376"/>
-        <c:axId val="55511296"/>
+        <c:axId val="70365952"/>
+        <c:axId val="70367872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55509376"/>
+        <c:axId val="70365952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5417,12 +5401,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55511296"/>
+        <c:crossAx val="70367872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55511296"/>
+        <c:axId val="70367872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5448,7 +5432,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55509376"/>
+        <c:crossAx val="70365952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5462,7 +5446,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5728,11 +5712,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="71590656"/>
-        <c:axId val="71592576"/>
+        <c:axId val="71977216"/>
+        <c:axId val="71999872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71590656"/>
+        <c:axId val="71977216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5757,12 +5741,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71592576"/>
+        <c:crossAx val="71999872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71592576"/>
+        <c:axId val="71999872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5788,7 +5772,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71590656"/>
+        <c:crossAx val="71977216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5802,7 +5786,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000162" r="0.70000000000000162" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6068,11 +6052,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75201920"/>
-        <c:axId val="75216384"/>
+        <c:axId val="72252416"/>
+        <c:axId val="72258688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75201920"/>
+        <c:axId val="72252416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6097,12 +6081,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75216384"/>
+        <c:crossAx val="72258688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75216384"/>
+        <c:axId val="72258688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6128,7 +6112,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75201920"/>
+        <c:crossAx val="72252416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6142,7 +6126,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6408,11 +6392,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82998400"/>
-        <c:axId val="83000320"/>
+        <c:axId val="72843264"/>
+        <c:axId val="72845184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82998400"/>
+        <c:axId val="72843264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6437,12 +6421,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83000320"/>
+        <c:crossAx val="72845184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83000320"/>
+        <c:axId val="72845184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6468,7 +6452,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82998400"/>
+        <c:crossAx val="72843264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6482,7 +6466,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000162" r="0.70000000000000162" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6504,7 +6488,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6748,11 +6731,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="83377536"/>
-        <c:axId val="83392000"/>
+        <c:axId val="72909568"/>
+        <c:axId val="72911488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83377536"/>
+        <c:axId val="72909568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6773,16 +6756,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83392000"/>
+        <c:crossAx val="72911488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83392000"/>
+        <c:axId val="72911488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6804,25 +6786,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83377536"/>
+        <c:crossAx val="72909568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000162" r="0.70000000000000162" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6844,7 +6824,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7088,11 +7067,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="55530624"/>
-        <c:axId val="55532544"/>
+        <c:axId val="72963584"/>
+        <c:axId val="72965504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55530624"/>
+        <c:axId val="72963584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7113,16 +7092,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55532544"/>
+        <c:crossAx val="72965504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55532544"/>
+        <c:axId val="72965504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7144,25 +7122,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55530624"/>
+        <c:crossAx val="72963584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000129" r="0.70000000000000129" t="0.75000000000000233" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000151" r="0.70000000000000151" t="0.75000000000000255" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11631,7 +11607,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -12371,8 +12347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -15158,7 +15134,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -15802,7 +15778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -16448,7 +16424,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K13"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -18367,7 +18343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
